--- a/downloaded_files/EECS203_Lecture-35912.xlsx
+++ b/downloaded_files/EECS203_Lecture-35912.xlsx
@@ -51,6 +51,15 @@
     <x:t>omnia ismail hassan yehia</x:t>
   </x:si>
   <x:si>
+    <x:t>1230165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه احمد محمد احمد حسن خشبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYA AHMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>2250008</x:t>
   </x:si>
   <x:si>
@@ -102,15 +111,6 @@
     <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
   </x:si>
   <x:si>
-    <x:t>1230055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد فصيح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230346</x:t>
   </x:si>
   <x:si>
@@ -201,6 +201,15 @@
     <x:t>Nataly Tamer Mohamed Samir Abdou</x:t>
   </x:si>
   <x:si>
+    <x:t>1230285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين احمد سامي عبد المنعم سرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yasien Ahmed Samy Serry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230288</x:t>
   </x:si>
   <x:si>
@@ -208,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Mohamed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -642,7 +642,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -787,7 +787,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.4121707986</x:v>
+        <x:v>45927.421352662</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -819,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45914.4121707986</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -851,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.4123898148</x:v>
+        <x:v>45907.6651860764</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -883,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4117393519</x:v>
+        <x:v>45914.4123898148</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -911,9 +911,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45914.4117393519</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -936,16 +938,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45907.6651596875</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -977,7 +977,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45907.6651596875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1329,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45927.5927735301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/EECS203_Lecture-35912.xlsx
+++ b/downloaded_files/EECS203_Lecture-35912.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,6 +217,12 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -332,7 +338,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +638,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1378,6 +1384,36 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s"/>
+      <x:c r="E23" s="3">
+        <x:v>45928.9282471065</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35912.xlsx
+++ b/downloaded_files/EECS203_Lecture-35912.xlsx
@@ -1420,11 +1420,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [20426]20426-32-الجيزة الرئيسي Time : Tuesday(8:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [20426]20426-32-الجيزة الرئيسي Time : Tuesday(8:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [20426]20426-32-الجيزة الرئيسي Time : Tuesday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
